--- a/regular_season_inputs.xlsx
+++ b/regular_season_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Football Pool\Web Pages\2023 Football Pool Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67776DD4-CDBD-4017-A4E2-6BD66788CF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670312A-D122-4325-AFD7-F3E0EF6B0A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>at</t>
   </si>
@@ -101,7 +101,16 @@
     <t>Vikings</t>
   </si>
   <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Rams</t>
+  </si>
+  <si>
     <t>Bills</t>
+  </si>
+  <si>
+    <t>Chiefs</t>
   </si>
   <si>
     <t>Giants</t>
@@ -110,7 +119,22 @@
     <t>Ravens</t>
   </si>
   <si>
+    <t>Patriots</t>
+  </si>
+  <si>
+    <t>Dolphins</t>
+  </si>
+  <si>
     <t>Cardinals</t>
+  </si>
+  <si>
+    <t>Colts</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>Saints</t>
   </si>
   <si>
     <t>Commanders</t>
@@ -155,46 +179,13 @@
     <t>Bengals</t>
   </si>
   <si>
-    <t>49ers</t>
+    <t/>
   </si>
   <si>
-    <t>Jaguars</t>
+    <t>9</t>
   </si>
   <si>
-    <t>Broncos</t>
-  </si>
-  <si>
-    <t>Dolphins</t>
-  </si>
-  <si>
-    <t>Rams</t>
-  </si>
-  <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t>Chiefs</t>
-  </si>
-  <si>
-    <t>Lions</t>
-  </si>
-  <si>
-    <t>Saints</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Colts</t>
-  </si>
-  <si>
-    <t>Patriots</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>49ers, Broncos, Jaguars, Lions</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>7</v>
@@ -1244,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
@@ -1290,13 +1281,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
@@ -1323,7 +1314,7 @@
       </c>
       <c r="AE5" s="2" t="str">
         <f ca="1">IF($AA$3&gt;0,CONCATENATE("Pick a winner (V or H) for ",OFFSET($C$4,$AA$3-ROW($B$4),0)," at ",OFFSET($E$4,$AA$3-ROW($B$4),0)," (Game ",OFFSET($B$4,$AA$3-ROW($B$4),0),")."),"")</f>
-        <v>Pick a winner (V or H) for Packers at Lions (Game 1).</v>
+        <v>Pick a winner (V or H) for Titans at Steelers (Game 1).</v>
       </c>
       <c r="AP5" s="2" t="str">
         <f ca="1">IF($AC$3&gt;0,(IF($G5=OFFSET($G$4,$AC$3-ROW($B$4),0),CONCATENATE(IF(COUNTIF($AP$3:$AP4,"")=ROW()-ROW($B$3),""," and "),IF($F5="V",$C5,$E5)," (Game ",$B5,")"),"")),"")</f>
@@ -1336,13 +1327,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1366,7 +1357,7 @@
       </c>
       <c r="AE6" s="2" t="str">
         <f ca="1">IF($AB$3&gt;0,CONCATENATE($AA$22," to the ",IF(OFFSET($F$4,$AB$3-ROW($B$4),0)="V",OFFSET($C$4,$AB$3-ROW($B$4),0),OFFSET($E$4,$AB$3-ROW($B$4),0))," (Game ",OFFSET($B$4,$AB$3-ROW($B$4),0),")."),"")</f>
-        <v>Assign a weight to the Lions (Game 1).</v>
+        <v>Assign a weight to the Steelers (Game 1).</v>
       </c>
       <c r="AP6" s="2" t="str">
         <f ca="1">IF($AC$3&gt;0,(IF($G6=OFFSET($G$4,$AC$3-ROW($B$4),0),CONCATENATE(IF(COUNTIF($AP$3:$AP5,"")=ROW()-ROW($B$3),""," and "),IF($F6="V",$C6,$E6)," (Game ",$B6,")"),"")),"")</f>
@@ -1379,13 +1370,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
@@ -1422,13 +1413,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
@@ -1465,13 +1456,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
@@ -1495,7 +1486,7 @@
       </c>
       <c r="AE9" s="2" t="str">
         <f ca="1">IF(total_points="",CONCATENATE("Enter your Total Points Prediction for ",C19," at ",E19," (Game ",B19,") in cell ",ADDRESS(ROW(total_points),COLUMN(total_points),4),"."),"")</f>
-        <v>Enter your Total Points Prediction for Bears at Vikings (Game 16) in cell G20.</v>
+        <v>Enter your Total Points Prediction for Chargers at Jets (Game 14) in cell G20.</v>
       </c>
       <c r="AP9" s="2" t="str">
         <f ca="1">IF($AC$3&gt;0,(IF($G9=OFFSET($G$4,$AC$3-ROW($B$4),0),CONCATENATE(IF(COUNTIF($AP$3:$AP8,"")=ROW()-ROW($B$3),""," and "),IF($F9="V",$C9,$E9)," (Game ",$B9,")"),"")),"")</f>
@@ -1508,13 +1499,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
@@ -1546,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
@@ -1584,13 +1575,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
@@ -1622,13 +1613,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
@@ -1660,13 +1651,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
@@ -1698,13 +1689,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
@@ -1739,13 +1730,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -1771,30 +1762,30 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35">
+    <row r="17" spans="2:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="str">
         <f ca="1">IF(AND(ISTEXT($C17),$C17&lt;&gt;""),ROW($B17)-ROW($B$3)-COUNTBLANK($C$4:OFFSET($C$4,ROW($B17)-ROW($B$4),0)),"")</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="C17" s="28" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="I17" s="18"/>
-      <c r="AA17" s="1">
+      <c r="AA17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AB17" s="1">
+        <v/>
+      </c>
+      <c r="AB17" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v/>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1809,30 +1800,30 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35">
+    <row r="18" spans="2:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="str">
         <f ca="1">IF(AND(ISTEXT($C18),$C18&lt;&gt;""),ROW($B18)-ROW($B$3)-COUNTBLANK($C$4:OFFSET($C$4,ROW($B18)-ROW($B$4),0)),"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="C18" s="28" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="I18" s="18"/>
-      <c r="AA18" s="1">
+      <c r="AA18" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AB18" s="1">
+        <v/>
+      </c>
+      <c r="AB18" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1850,16 +1841,16 @@
     <row r="19" spans="2:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="36">
         <f ca="1">IF(AND(ISTEXT($C19),$C19&lt;&gt;""),ROW($B19)-ROW($B$3)-COUNTBLANK($C$4:OFFSET($C$4,ROW($B19)-ROW($B$4),0)),"")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
@@ -1892,7 +1883,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="37" t="str">
         <f ca="1">IF(I2="","Pts:",CONCATENATE("Game ",B19," Total Points:  "))</f>
-        <v xml:space="preserve">Game 16 Total Points:  </v>
+        <v xml:space="preserve">Game 14 Total Points:  </v>
       </c>
       <c r="G20" s="38"/>
       <c r="I20" s="18"/>
@@ -1907,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
@@ -1986,7 +1977,7 @@
       </c>
       <c r="D35" s="7">
         <f>16-(COUNTBLANK($C$4:$C$19))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1"/>
       <c r="AE35" s="1"/>
@@ -1995,7 +1986,7 @@
     <row r="36" spans="3:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="str">
         <f ca="1">CONCATENATE("Weights not used:  ",$C$41,$D$41,$E$41,$F$41,$G$41,$H$41,$I$41,$J$41,$K$41,$L$41,$M$41,$N$41,$O$41,$P$41,$Q$41,$R$41)</f>
-        <v xml:space="preserve">Weights not used:  1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  </v>
+        <v xml:space="preserve">Weights not used:  3  4  5  6  7  8  9  10  11  12  13  14  15  16  </v>
       </c>
       <c r="D36" s="5"/>
       <c r="G36" s="1"/>
@@ -2073,11 +2064,11 @@
     <row r="40" spans="3:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <f ca="1">IF(COUNTIF((OFFSET($R$39,0,-($D$35)+1)):$R$39,C39)&gt;0,COUNTIF($G4:$G19,C39),-1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="1">
         <f ca="1">IF(COUNTIF((OFFSET($R$39,0,-($D$35)+1)):$R$39,D39)&gt;0,COUNTIF($G4:$G19,D39),-1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="1">
         <f ca="1">IF(COUNTIF((OFFSET($R$39,0,-($D$35)+1)):$R$39,E39)&gt;0,COUNTIF($G4:$G19,E39),-1)</f>
@@ -2141,11 +2132,11 @@
     <row r="41" spans="3:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="str">
         <f t="shared" ref="C41:R41" ca="1" si="4">IF(C40=0,CONCATENATE(C39,"  "),"")</f>
-        <v xml:space="preserve">1  </v>
+        <v/>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">2  </v>
+        <v/>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" ca="1" si="4"/>

--- a/regular_season_inputs.xlsx
+++ b/regular_season_inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Football Pool\Web Pages\2023 Football Pool Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6670312A-D122-4325-AFD7-F3E0EF6B0A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67776DD4-CDBD-4017-A4E2-6BD66788CF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>at</t>
   </si>
@@ -101,16 +101,7 @@
     <t>Vikings</t>
   </si>
   <si>
-    <t>Eagles</t>
-  </si>
-  <si>
-    <t>Rams</t>
-  </si>
-  <si>
     <t>Bills</t>
-  </si>
-  <si>
-    <t>Chiefs</t>
   </si>
   <si>
     <t>Giants</t>
@@ -119,22 +110,7 @@
     <t>Ravens</t>
   </si>
   <si>
-    <t>Patriots</t>
-  </si>
-  <si>
-    <t>Dolphins</t>
-  </si>
-  <si>
     <t>Cardinals</t>
-  </si>
-  <si>
-    <t>Colts</t>
-  </si>
-  <si>
-    <t>Falcons</t>
-  </si>
-  <si>
-    <t>Saints</t>
   </si>
   <si>
     <t>Commanders</t>
@@ -179,13 +155,46 @@
     <t>Bengals</t>
   </si>
   <si>
-    <t/>
+    <t>49ers</t>
   </si>
   <si>
-    <t>9</t>
+    <t>Jaguars</t>
   </si>
   <si>
-    <t>49ers, Broncos, Jaguars, Lions</t>
+    <t>Broncos</t>
+  </si>
+  <si>
+    <t>Dolphins</t>
+  </si>
+  <si>
+    <t>Rams</t>
+  </si>
+  <si>
+    <t>Eagles</t>
+  </si>
+  <si>
+    <t>Chiefs</t>
+  </si>
+  <si>
+    <t>Lions</t>
+  </si>
+  <si>
+    <t>Saints</t>
+  </si>
+  <si>
+    <t>Falcons</t>
+  </si>
+  <si>
+    <t>Colts</t>
+  </si>
+  <si>
+    <t>Patriots</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>7</v>
@@ -1235,13 +1244,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
@@ -1281,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
@@ -1314,7 +1323,7 @@
       </c>
       <c r="AE5" s="2" t="str">
         <f ca="1">IF($AA$3&gt;0,CONCATENATE("Pick a winner (V or H) for ",OFFSET($C$4,$AA$3-ROW($B$4),0)," at ",OFFSET($E$4,$AA$3-ROW($B$4),0)," (Game ",OFFSET($B$4,$AA$3-ROW($B$4),0),")."),"")</f>
-        <v>Pick a winner (V or H) for Titans at Steelers (Game 1).</v>
+        <v>Pick a winner (V or H) for Packers at Lions (Game 1).</v>
       </c>
       <c r="AP5" s="2" t="str">
         <f ca="1">IF($AC$3&gt;0,(IF($G5=OFFSET($G$4,$AC$3-ROW($B$4),0),CONCATENATE(IF(COUNTIF($AP$3:$AP4,"")=ROW()-ROW($B$3),""," and "),IF($F5="V",$C5,$E5)," (Game ",$B5,")"),"")),"")</f>
@@ -1327,13 +1336,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1357,7 +1366,7 @@
       </c>
       <c r="AE6" s="2" t="str">
         <f ca="1">IF($AB$3&gt;0,CONCATENATE($AA$22," to the ",IF(OFFSET($F$4,$AB$3-ROW($B$4),0)="V",OFFSET($C$4,$AB$3-ROW($B$4),0),OFFSET($E$4,$AB$3-ROW($B$4),0))," (Game ",OFFSET($B$4,$AB$3-ROW($B$4),0),")."),"")</f>
-        <v>Assign a weight to the Steelers (Game 1).</v>
+        <v>Assign a weight to the Lions (Game 1).</v>
       </c>
       <c r="AP6" s="2" t="str">
         <f ca="1">IF($AC$3&gt;0,(IF($G6=OFFSET($G$4,$AC$3-ROW($B$4),0),CONCATENATE(IF(COUNTIF($AP$3:$AP5,"")=ROW()-ROW($B$3),""," and "),IF($F6="V",$C6,$E6)," (Game ",$B6,")"),"")),"")</f>
@@ -1370,13 +1379,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
@@ -1413,13 +1422,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
@@ -1456,13 +1465,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
@@ -1486,7 +1495,7 @@
       </c>
       <c r="AE9" s="2" t="str">
         <f ca="1">IF(total_points="",CONCATENATE("Enter your Total Points Prediction for ",C19," at ",E19," (Game ",B19,") in cell ",ADDRESS(ROW(total_points),COLUMN(total_points),4),"."),"")</f>
-        <v>Enter your Total Points Prediction for Chargers at Jets (Game 14) in cell G20.</v>
+        <v>Enter your Total Points Prediction for Bears at Vikings (Game 16) in cell G20.</v>
       </c>
       <c r="AP9" s="2" t="str">
         <f ca="1">IF($AC$3&gt;0,(IF($G9=OFFSET($G$4,$AC$3-ROW($B$4),0),CONCATENATE(IF(COUNTIF($AP$3:$AP8,"")=ROW()-ROW($B$3),""," and "),IF($F9="V",$C9,$E9)," (Game ",$B9,")"),"")),"")</f>
@@ -1499,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
@@ -1537,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
@@ -1575,13 +1584,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
@@ -1613,13 +1622,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
@@ -1651,13 +1660,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
@@ -1689,13 +1698,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
@@ -1730,13 +1739,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -1762,30 +1771,30 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="str">
+    <row r="17" spans="2:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="35">
         <f ca="1">IF(AND(ISTEXT($C17),$C17&lt;&gt;""),ROW($B17)-ROW($B$3)-COUNTBLANK($C$4:OFFSET($C$4,ROW($B17)-ROW($B$4),0)),"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="I17" s="18"/>
-      <c r="AA17" s="1" t="str">
+      <c r="AA17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB17" s="1" t="str">
+        <v>17</v>
+      </c>
+      <c r="AB17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1800,30 +1809,30 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="str">
+    <row r="18" spans="2:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="35">
         <f ca="1">IF(AND(ISTEXT($C18),$C18&lt;&gt;""),ROW($B18)-ROW($B$3)-COUNTBLANK($C$4:OFFSET($C$4,ROW($B18)-ROW($B$4),0)),"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="I18" s="18"/>
-      <c r="AA18" s="1" t="str">
+      <c r="AA18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB18" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="AB18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="AC18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1841,16 +1850,16 @@
     <row r="19" spans="2:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="36">
         <f ca="1">IF(AND(ISTEXT($C19),$C19&lt;&gt;""),ROW($B19)-ROW($B$3)-COUNTBLANK($C$4:OFFSET($C$4,ROW($B19)-ROW($B$4),0)),"")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
@@ -1883,7 +1892,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="37" t="str">
         <f ca="1">IF(I2="","Pts:",CONCATENATE("Game ",B19," Total Points:  "))</f>
-        <v xml:space="preserve">Game 14 Total Points:  </v>
+        <v xml:space="preserve">Game 16 Total Points:  </v>
       </c>
       <c r="G20" s="38"/>
       <c r="I20" s="18"/>
@@ -1898,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
@@ -1977,7 +1986,7 @@
       </c>
       <c r="D35" s="7">
         <f>16-(COUNTBLANK($C$4:$C$19))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1"/>
       <c r="AE35" s="1"/>
@@ -1986,7 +1995,7 @@
     <row r="36" spans="3:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="str">
         <f ca="1">CONCATENATE("Weights not used:  ",$C$41,$D$41,$E$41,$F$41,$G$41,$H$41,$I$41,$J$41,$K$41,$L$41,$M$41,$N$41,$O$41,$P$41,$Q$41,$R$41)</f>
-        <v xml:space="preserve">Weights not used:  3  4  5  6  7  8  9  10  11  12  13  14  15  16  </v>
+        <v xml:space="preserve">Weights not used:  1  2  3  4  5  6  7  8  9  10  11  12  13  14  15  16  </v>
       </c>
       <c r="D36" s="5"/>
       <c r="G36" s="1"/>
@@ -2064,11 +2073,11 @@
     <row r="40" spans="3:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <f ca="1">IF(COUNTIF((OFFSET($R$39,0,-($D$35)+1)):$R$39,C39)&gt;0,COUNTIF($G4:$G19,C39),-1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
         <f ca="1">IF(COUNTIF((OFFSET($R$39,0,-($D$35)+1)):$R$39,D39)&gt;0,COUNTIF($G4:$G19,D39),-1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <f ca="1">IF(COUNTIF((OFFSET($R$39,0,-($D$35)+1)):$R$39,E39)&gt;0,COUNTIF($G4:$G19,E39),-1)</f>
@@ -2132,11 +2141,11 @@
     <row r="41" spans="3:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="str">
         <f t="shared" ref="C41:R41" ca="1" si="4">IF(C40=0,CONCATENATE(C39,"  "),"")</f>
-        <v/>
+        <v xml:space="preserve">1  </v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v xml:space="preserve">2  </v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" ca="1" si="4"/>
